--- a/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
+++ b/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\RS_CRM\testData\SMS\"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="153">
   <si>
     <t>ModuleName</t>
   </si>
@@ -423,12 +423,79 @@
   </si>
   <si>
     <t>Lead about MobileApp</t>
+  </si>
+  <si>
+    <t>6422385968</t>
+  </si>
+  <si>
+    <t>3781275865</t>
+  </si>
+  <si>
+    <t>9057080783</t>
+  </si>
+  <si>
+    <t>1067546196</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2024-01-23 05:31:49 PM</t>
+  </si>
+  <si>
+    <t>2024-01-23 05:40:56 PM</t>
+  </si>
+  <si>
+    <t>4574544809</t>
+  </si>
+  <si>
+    <t>2690171822</t>
+  </si>
+  <si>
+    <t>7664429376</t>
+  </si>
+  <si>
+    <t>4801080444</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-16 01:31:18 PM</t>
+  </si>
+  <si>
+    <t>2024-02-16 01:39:27 PM</t>
+  </si>
+  <si>
+    <t>8883327060</t>
+  </si>
+  <si>
+    <t>5020409301</t>
+  </si>
+  <si>
+    <t>3336297739</t>
+  </si>
+  <si>
+    <t>3054872934</t>
+  </si>
+  <si>
+    <t>2024-02-16 01:46:08 PM</t>
+  </si>
+  <si>
+    <t>2024-02-16 01:54:13 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5216,53 +5283,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="2"/>
-    <col min="9" max="9" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="2"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.81640625" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.90625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" style="2" width="8.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="13" style="2" width="8.7265625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" style="2" width="8.7265625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" style="2" width="8.7265625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.90625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="15.453125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" customWidth="true" style="2" width="25.81640625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -5439,8 +5506,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>116</v>
+      <c r="F2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -5463,14 +5530,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
+      <c r="N2" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -5505,14 +5572,14 @@
       <c r="AB2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>114</v>
+      <c r="AC2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>117</v>
+      <c r="AE2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -5526,8 +5593,8 @@
       <c r="AI2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>113</v>
+      <c r="AK2" t="s" s="2">
+        <v>135</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>54</v>
@@ -5538,8 +5605,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>118</v>
+      <c r="AT2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>78</v>
@@ -5550,8 +5617,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>119</v>
+      <c r="AX2" t="s" s="2">
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
@@ -5588,54 +5655,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -5812,8 +5879,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>116</v>
+      <c r="F2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>85</v>
@@ -5836,14 +5903,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
+      <c r="N2" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>152</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -5878,14 +5945,14 @@
       <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>114</v>
+      <c r="AC2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>117</v>
+      <c r="AE2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -5908,8 +5975,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>118</v>
+      <c r="AT2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>93</v>
@@ -5920,8 +5987,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>119</v>
+      <c r="AX2" t="s" s="2">
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
@@ -5951,53 +6018,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -6174,8 +6241,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>116</v>
+      <c r="F2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>94</v>
@@ -6198,14 +6265,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
+      <c r="N2" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>152</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -6240,14 +6307,14 @@
       <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>114</v>
+      <c r="AC2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>117</v>
+      <c r="AE2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>103</v>
@@ -6270,8 +6337,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>118</v>
+      <c r="AT2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>104</v>
@@ -6282,8 +6349,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>119</v>
+      <c r="AX2" t="s" s="2">
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
@@ -6313,53 +6380,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -6536,8 +6603,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>116</v>
+      <c r="F2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>106</v>
@@ -6560,14 +6627,14 @@
       <c r="M2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>120</v>
+      <c r="N2" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>152</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -6605,14 +6672,14 @@
       <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>114</v>
+      <c r="AC2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>117</v>
+      <c r="AE2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6635,8 +6702,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>118</v>
+      <c r="AT2" t="s" s="2">
+        <v>149</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>110</v>
@@ -6647,8 +6714,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>119</v>
+      <c r="AX2" t="s" s="2">
+        <v>150</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>112</v>

--- a/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
+++ b/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="163">
   <si>
     <t>ModuleName</t>
   </si>
@@ -489,6 +489,36 @@
   </si>
   <si>
     <t>2024-02-16 01:54:13 PM</t>
+  </si>
+  <si>
+    <t>0141935690</t>
+  </si>
+  <si>
+    <t>1447058961</t>
+  </si>
+  <si>
+    <t>9685046387</t>
+  </si>
+  <si>
+    <t>5762296884</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 07:24:53 PM</t>
+  </si>
+  <si>
+    <t>CurrentTime</t>
+  </si>
+  <si>
+    <t>CT. Wed, Mar 06, 2024 at 7:30 PM</t>
   </si>
 </sst>
 </file>
@@ -5486,8 +5516,8 @@
       <c r="AY1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>73</v>
+      <c r="AZ1" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="72.5" x14ac:dyDescent="0.35">
@@ -5507,7 +5537,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -5531,13 +5561,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -5573,13 +5603,13 @@
         <v>50</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -5594,7 +5624,7 @@
         <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>54</v>
@@ -5606,7 +5636,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>78</v>
@@ -5618,13 +5648,13 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>74</v>
+      <c r="AZ2" t="s" s="2">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5880,7 +5910,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>85</v>
@@ -5952,7 +5982,7 @@
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -5976,7 +6006,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>93</v>
@@ -5988,7 +6018,7 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
@@ -6242,7 +6272,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>94</v>
@@ -6314,7 +6344,7 @@
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>103</v>
@@ -6338,7 +6368,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>104</v>
@@ -6350,7 +6380,7 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
@@ -6604,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>106</v>
@@ -6679,7 +6709,7 @@
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6703,7 +6733,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>110</v>
@@ -6715,7 +6745,7 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>112</v>

--- a/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
+++ b/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="176">
   <si>
     <t>ModuleName</t>
   </si>
@@ -519,6 +519,45 @@
   </si>
   <si>
     <t>CT. Wed, Mar 06, 2024 at 7:30 PM</t>
+  </si>
+  <si>
+    <t>9453446792</t>
+  </si>
+  <si>
+    <t>3964451760</t>
+  </si>
+  <si>
+    <t>3093607659</t>
+  </si>
+  <si>
+    <t>5465136395</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>2024-04-28 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 2:20 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 2:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, May 25, 2024 at 2:37 PM</t>
+  </si>
+  <si>
+    <t>2512700123</t>
+  </si>
+  <si>
+    <t>4004784379</t>
+  </si>
+  <si>
+    <t>0364350912</t>
+  </si>
+  <si>
+    <t>1172955431</t>
   </si>
 </sst>
 </file>
@@ -5537,7 +5576,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -5561,13 +5600,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>159</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -5603,13 +5642,13 @@
         <v>50</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -5624,7 +5663,7 @@
         <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>54</v>
@@ -5636,7 +5675,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>78</v>
@@ -5648,13 +5687,13 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5889,8 +5928,8 @@
       <c r="AY1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>73</v>
+      <c r="AZ1" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -5910,7 +5949,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>85</v>
@@ -5934,13 +5973,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -5976,13 +6015,13 @@
         <v>50</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>91</v>
@@ -6006,7 +6045,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>93</v>
@@ -6018,13 +6057,13 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>74</v>
+      <c r="AZ2" t="s" s="2">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6251,8 +6290,8 @@
       <c r="AY1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>73</v>
+      <c r="AZ1" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -6272,7 +6311,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>94</v>
@@ -6296,13 +6335,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -6338,13 +6377,13 @@
         <v>50</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>103</v>
@@ -6368,7 +6407,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>104</v>
@@ -6380,13 +6419,13 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>74</v>
+      <c r="AZ2" t="s" s="2">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -6613,8 +6652,8 @@
       <c r="AY1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>73</v>
+      <c r="AZ1" t="s" s="2">
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="116" x14ac:dyDescent="0.35">
@@ -6634,7 +6673,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>106</v>
@@ -6658,13 +6697,13 @@
         <v>124</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="2">
         <v>7777777777</v>
@@ -6703,13 +6742,13 @@
         <v>50</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6733,7 +6772,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>110</v>
@@ -6745,13 +6784,13 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>74</v>
+      <c r="AZ2" t="s" s="2">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
+++ b/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Rsoft_CRM\testData\SMS\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
     <customWorkbookView name="Rsoft - Personal View" guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="776" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
   <si>
     <t>ModuleName</t>
   </si>
@@ -436,12 +436,55 @@
   </si>
   <si>
     <t>CT: Wed, Jul 10, 2024 at 5:03 PM</t>
+  </si>
+  <si>
+    <t>9840096330</t>
+  </si>
+  <si>
+    <t>9840067701</t>
+  </si>
+  <si>
+    <t>9840057150</t>
+  </si>
+  <si>
+    <t>9840036780</t>
+  </si>
+  <si>
+    <t>9840008207</t>
+  </si>
+  <si>
+    <t>9840076657</t>
+  </si>
+  <si>
+    <t>9840096144</t>
+  </si>
+  <si>
+    <t>9840001736</t>
+  </si>
+  <si>
+    <t>9840035181</t>
+  </si>
+  <si>
+    <t>9840027387</t>
+  </si>
+  <si>
+    <t>9840029131</t>
+  </si>
+  <si>
+    <t>9840022559</t>
+  </si>
+  <si>
+    <t>08-01-2025</t>
+  </si>
+  <si>
+    <t>11-01-2025 05:00:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,53 +966,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="2"/>
-    <col min="9" max="9" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="2"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="2"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="2"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18" style="2" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.85546875" style="2" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" style="2" width="8.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="13" style="2" width="8.7109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" style="2" width="8.7109375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" style="2" width="8.7109375"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="14.85546875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="15.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.0"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" customWidth="true" style="2" width="25.85546875"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1146,8 +1189,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
+      <c r="F2" t="s" s="2">
+        <v>143</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -1170,14 +1213,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O2" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>127</v>
+      <c r="P2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -1218,8 +1261,8 @@
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>129</v>
+      <c r="AE2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>75</v>
@@ -1233,7 +1276,7 @@
       <c r="AI2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AQ2" s="2" t="s">
@@ -1245,8 +1288,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>130</v>
+      <c r="AT2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>76</v>
@@ -1257,8 +1300,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>131</v>
+      <c r="AX2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>77</v>
@@ -1299,54 +1342,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1523,8 +1566,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
+      <c r="F2" t="s" s="2">
+        <v>143</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>83</v>
@@ -1595,8 +1638,8 @@
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>129</v>
+      <c r="AE2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>89</v>
@@ -1619,8 +1662,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>130</v>
+      <c r="AT2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>91</v>
@@ -1631,8 +1674,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>131</v>
+      <c r="AX2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>77</v>
@@ -1666,53 +1709,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1889,8 +1932,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
+      <c r="F2" t="s" s="2">
+        <v>143</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>92</v>
@@ -1961,8 +2004,8 @@
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>129</v>
+      <c r="AE2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>101</v>
@@ -1985,8 +2028,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>130</v>
+      <c r="AT2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>102</v>
@@ -1997,8 +2040,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>131</v>
+      <c r="AX2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>77</v>
@@ -2032,53 +2075,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -2255,8 +2298,8 @@
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>128</v>
+      <c r="F2" t="s" s="2">
+        <v>143</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>104</v>
@@ -2327,8 +2370,8 @@
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>129</v>
+      <c r="AE2" t="s" s="2">
+        <v>144</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>75</v>
@@ -2351,8 +2394,8 @@
       <c r="AS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AT2" s="2" t="s">
-        <v>130</v>
+      <c r="AT2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>108</v>
@@ -2363,8 +2406,8 @@
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="2" t="s">
-        <v>131</v>
+      <c r="AX2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>110</v>

--- a/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
+++ b/testData/SMS/WF6_Send_SMS_ETR_M_Test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Rsoft - Personal View" guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="776" activeSheetId="1"/>
     <customWorkbookView name="Sudhakar Rsoft - Personal View" guid="{65A6858D-7219-405D-B85D-01E367F321A3}" mergeInterval="0" personalView="1" maximized="1" xWindow="-11" yWindow="-11" windowWidth="1942" windowHeight="1030" activeSheetId="4"/>
-    <customWorkbookView name="Rsoft - Personal View" guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="776" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="144">
   <si>
     <t>ModuleName</t>
   </si>
@@ -315,9 +315,6 @@
     <t>three</t>
   </si>
   <si>
-    <t>Ozar</t>
-  </si>
-  <si>
     <t>Telengana</t>
   </si>
   <si>
@@ -411,73 +408,61 @@
     <t>40000</t>
   </si>
   <si>
-    <t>2024-07-10</t>
-  </si>
-  <si>
-    <t>2024-07-13 05:00:00 PM</t>
-  </si>
-  <si>
-    <t>9840031536</t>
-  </si>
-  <si>
-    <t>9840081840</t>
-  </si>
-  <si>
-    <t>9840098097</t>
-  </si>
-  <si>
-    <t>9840027259</t>
-  </si>
-  <si>
-    <t>CT: Wed, Jul 10, 2024 at 4:47 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Jul 10, 2024 at 4:55 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Jul 10, 2024 at 5:03 PM</t>
-  </si>
-  <si>
-    <t>9840096330</t>
-  </si>
-  <si>
-    <t>9840067701</t>
-  </si>
-  <si>
-    <t>9840057150</t>
-  </si>
-  <si>
-    <t>9840036780</t>
-  </si>
-  <si>
-    <t>9840008207</t>
-  </si>
-  <si>
-    <t>9840076657</t>
-  </si>
-  <si>
-    <t>9840096144</t>
-  </si>
-  <si>
-    <t>9840001736</t>
-  </si>
-  <si>
-    <t>9840035181</t>
-  </si>
-  <si>
-    <t>9840027387</t>
-  </si>
-  <si>
-    <t>9840029131</t>
-  </si>
-  <si>
-    <t>9840022559</t>
-  </si>
-  <si>
-    <t>08-01-2025</t>
-  </si>
-  <si>
-    <t>11-01-2025 05:00:00 PM</t>
+    <t>09-01-2025</t>
+  </si>
+  <si>
+    <t>12-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 4:24 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 4:41 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jan 09, 2025 at 4:54 PM</t>
+  </si>
+  <si>
+    <t>10-01-2025</t>
+  </si>
+  <si>
+    <t>13-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>9840036957</t>
+  </si>
+  <si>
+    <t>9840016406</t>
+  </si>
+  <si>
+    <t>9840000373</t>
+  </si>
+  <si>
+    <t>9840018352</t>
+  </si>
+  <si>
+    <t>9840025817</t>
+  </si>
+  <si>
+    <t>9840044592</t>
+  </si>
+  <si>
+    <t>9840080778</t>
+  </si>
+  <si>
+    <t>9840057528</t>
+  </si>
+  <si>
+    <t>9840030168</t>
+  </si>
+  <si>
+    <t>9840018882</t>
+  </si>
+  <si>
+    <t>9840040596</t>
+  </si>
+  <si>
+    <t>9840073682</t>
   </si>
 </sst>
 </file>
@@ -559,40 +544,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3C7F02D8-BBC1-4D63-9C8D-D94282A2C3EE}" diskRevisions="1" revisionId="437" version="20">
-  <header guid="{DC7F344A-E11B-4DCF-9CED-529EAAFC9589}" dateTime="2024-07-10T14:44:47" maxSheetId="5" userName="Rsoft" r:id="rId16" minRId="432">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6ECCE375-3DFB-4401-8881-EA57D956E42A}" dateTime="2024-07-10T14:44:58" maxSheetId="5" userName="Rsoft" r:id="rId17" minRId="433">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B21B33CC-0ECE-4EB3-BD41-CD4B91F8B9C6}" dateTime="2024-07-10T14:45:44" maxSheetId="5" userName="Rsoft" r:id="rId18" minRId="434">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{723EC4E2-A522-41A8-881D-CCDF93E536F6}" dateTime="2024-07-10T14:45:57" maxSheetId="5" userName="Rsoft" r:id="rId19" minRId="435" maxRId="436">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3C7F02D8-BBC1-4D63-9C8D-D94282A2C3EE}" dateTime="2024-07-10T17:21:23" maxSheetId="5" userName="Rsoft" r:id="rId20" minRId="437">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5901CECA-226F-4C85-878A-C3046DE80BDD}" diskRevisions="1" revisionId="438" version="21">
+  <header guid="{5901CECA-226F-4C85-878A-C3046DE80BDD}" dateTime="2025-01-12T01:22:27" maxSheetId="5" userName="Sudhakar Rsoft" r:id="rId21" minRId="438">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -603,90 +556,19 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="437" sId="4">
-    <oc r="L2" t="inlineStr">
+  <rcc rId="438" sId="3">
+    <oc r="J2" t="inlineStr">
       <is>
-        <t>CAT</t>
+        <t>Ozar</t>
       </is>
     </oc>
-    <nc r="L2" t="inlineStr">
+    <nc r="J2" t="inlineStr">
       <is>
-        <t>India</t>
+        <t>Chennai</t>
       </is>
     </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="432" sId="1" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>8000</v>
-    </oc>
-    <nc r="V2" t="inlineStr">
-      <is>
-        <t>8000</t>
-      </is>
-    </nc>
-    <odxf/>
-  </rcc>
-  <rcv guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="433" sId="2" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>70000</v>
-    </oc>
-    <nc r="V2" t="inlineStr">
-      <is>
-        <t>70000</t>
-      </is>
-    </nc>
-    <odxf/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="434" sId="3" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>8000</v>
-    </oc>
-    <nc r="V2" t="inlineStr">
-      <is>
-        <t>8000</t>
-      </is>
-    </nc>
-    <odxf/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="435" sId="4">
-    <oc r="Q2">
-      <v>7777777777</v>
-    </oc>
-    <nc r="Q2"/>
-  </rcc>
-  <rcc rId="436" sId="4" odxf="1" numFmtId="4" quotePrefix="1">
-    <oc r="V2">
-      <v>40000</v>
-    </oc>
-    <nc r="V2" t="inlineStr">
-      <is>
-        <t>40000</t>
-      </is>
-    </nc>
-    <odxf/>
   </rcc>
 </revisions>
 </file>
@@ -960,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1052,7 @@
         <v>64</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.25">
@@ -1190,7 +1072,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -1213,14 +1095,14 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O2" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>148</v>
+      <c r="N2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -1235,7 +1117,7 @@
         <v>33333333333</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>48</v>
@@ -1256,13 +1138,13 @@
         <v>50</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>75</v>
@@ -1277,7 +1159,7 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>54</v>
@@ -1289,7 +1171,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>76</v>
@@ -1301,23 +1183,23 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}" topLeftCell="P1">
+      <selection activeCell="V3" sqref="V3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="AA1">
       <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}" topLeftCell="P1">
-      <selection activeCell="V3" sqref="V3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1337,7 +1219,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1429,7 @@
         <v>64</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -1567,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>83</v>
@@ -1591,13 +1473,13 @@
         <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -1612,7 +1494,7 @@
         <v>44444444444</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>48</v>
@@ -1633,13 +1515,13 @@
         <v>50</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>89</v>
@@ -1663,7 +1545,7 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>91</v>
@@ -1675,23 +1557,23 @@
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="AB1">
       <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1704,7 +1586,7 @@
   <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1913,7 +1795,7 @@
         <v>64</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -1933,7 +1815,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>92</v>
@@ -1945,10 +1827,10 @@
         <v>93</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>25</v>
@@ -1957,13 +1839,13 @@
         <v>26</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
@@ -1972,43 +1854,43 @@
         <v>41</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U2" s="2">
         <v>33333333333</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>80</v>
@@ -2029,35 +1911,35 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AU2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>77</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}" topLeftCell="AB1">
       <selection activeCell="AI2" sqref="AI2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}">
-      <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -2069,8 +1951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,7 +2149,7 @@
         <v>61</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AW1" s="2" t="s">
         <v>67</v>
@@ -2279,7 +2161,7 @@
         <v>64</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="135" x14ac:dyDescent="0.25">
@@ -2293,85 +2175,85 @@
         <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2">
         <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="U2" s="2">
         <v>6666666666</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>41</v>
       </c>
       <c r="Y2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>75</v>
@@ -2395,34 +2277,34 @@
         <v>66</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AU2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AY2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}">
+    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{505333AB-69DD-4D7A-BB3B-2CFAEA18D087}">
+    <customSheetView guid="{65A6858D-7219-405D-B85D-01E367F321A3}">
       <selection activeCell="A2" sqref="A2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
